--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947914.3624633262</v>
+        <v>943405.6267553002</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30060817.87599995</v>
+        <v>30060817.87599993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7371539.748594786</v>
+        <v>7371539.748594787</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>272.7850620561929</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>137.8579078724541</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H12" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>124.2010950075379</v>
       </c>
       <c r="E13" t="n">
-        <v>77.40328131605202</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.0370636576713</v>
@@ -1584,19 +1584,19 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>77.28720042392929</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,7 +1624,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H14" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>142.8471130894446</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H15" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0.7389474280820959</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7109207868414</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U16" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>118.0226238570109</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>44.41776252893082</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>75.27680603532377</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H17" t="n">
         <v>274.71888335875</v>
@@ -1897,22 +1897,22 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H18" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>70.73404853354977</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.5359063128239</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U19" t="n">
         <v>277.3344142389604</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>152.3777009786579</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>33.78973071072614</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7215039904934</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2256,10 +2256,10 @@
         <v>163.7109207868414</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T22" t="n">
         <v>237.1310885301926</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>247.6991620764193</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>275.2540193715159</v>
+        <v>349.2021026531553</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>105.1260908989901</v>
       </c>
       <c r="I25" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>109.9572148535161</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T25" t="n">
         <v>237.1310885301926</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>309.9246702465416</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2566,13 +2566,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.81253921318466</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7109207868414</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I28" t="n">
         <v>72.20225288674683</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.1754356828063</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>37.84957797458929</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6654187922253436</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>194.9334828484056</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1732946584039</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>27.2820565187602</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>350.6677193271062</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V32" t="n">
-        <v>334.230286520487</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.36537142292313</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5033723615851</v>
+        <v>41.17127497653252</v>
       </c>
       <c r="I34" t="n">
         <v>72.20225288674683</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.0370636576713</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.71888335875</v>
+        <v>250.8325666881255</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.0945428230611</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.67600525150249</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.0370636576713</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>92.87636080858411</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.674394927633582</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>267.5620027123139</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>125.4864598763222</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>126.0581631170321</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7109207868414</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T40" t="n">
-        <v>126.0263884870369</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.75262046739785</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>97.95392239439012</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H41" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.569015844488609</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S43" t="n">
-        <v>67.72687947508956</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U43" t="n">
         <v>277.3344142389604</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>54.31087516687487</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6137950796671</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>12.86275986585911</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.7100929925859</v>
       </c>
       <c r="I46" t="n">
-        <v>47.83134285928856</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>6.843788712764123</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T46" t="n">
         <v>237.1310885301926</v>
@@ -4194,16 +4194,16 @@
         <v>277.3344142389604</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>468.2908616872685</v>
+        <v>1424.598542557008</v>
       </c>
       <c r="C11" t="n">
-        <v>468.2908616872685</v>
+        <v>997.6978125703083</v>
       </c>
       <c r="D11" t="n">
-        <v>468.2908616872685</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="E11" t="n">
-        <v>42.3139218351261</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="F11" t="n">
-        <v>42.3139218351261</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G11" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H11" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I11" t="n">
-        <v>83.28385069007322</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J11" t="n">
         <v>219.6508459321587</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2746315182159</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M11" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N11" t="n">
         <v>1318.386188667469</v>
       </c>
       <c r="O11" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.90025066081</v>
       </c>
       <c r="P11" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q11" t="n">
         <v>2027.89491136433</v>
@@ -5068,25 +5068,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S11" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T11" t="n">
-        <v>1844.446906848539</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="U11" t="n">
-        <v>1844.446906848539</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="V11" t="n">
-        <v>1844.446906848539</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="W11" t="n">
-        <v>1705.196494856161</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="X11" t="n">
-        <v>1293.476496023908</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="Y11" t="n">
-        <v>888.1392259787985</v>
+        <v>1844.446906848538</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I12" t="n">
-        <v>85.68024619823247</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8415942264658</v>
+        <v>140.3842883820539</v>
       </c>
       <c r="K12" t="n">
-        <v>310.1319463808643</v>
+        <v>286.6746405364524</v>
       </c>
       <c r="L12" t="n">
-        <v>514.364791140928</v>
+        <v>490.9074852965161</v>
       </c>
       <c r="M12" t="n">
-        <v>755.8403790129598</v>
+        <v>732.383073168548</v>
       </c>
       <c r="N12" t="n">
-        <v>1006.048511961736</v>
+        <v>982.5912061173244</v>
       </c>
       <c r="O12" t="n">
-        <v>1231.329354763564</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.077461028305</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R12" t="n">
         <v>1815.524390138853</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1001.808292005612</v>
+        <v>505.9503423261221</v>
       </c>
       <c r="C13" t="n">
-        <v>829.8357288845277</v>
+        <v>333.9777792050381</v>
       </c>
       <c r="D13" t="n">
-        <v>666.5189560112984</v>
+        <v>208.5221276822725</v>
       </c>
       <c r="E13" t="n">
-        <v>588.3338233688216</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F13" t="n">
-        <v>416.472049143382</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G13" t="n">
-        <v>251.107482692027</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H13" t="n">
-        <v>115.2454904075977</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I13" t="n">
         <v>42.3139218351261</v>
@@ -5205,46 +5205,46 @@
         <v>489.7879925407226</v>
       </c>
       <c r="L13" t="n">
-        <v>598.1241929939508</v>
+        <v>780.7822961998836</v>
       </c>
       <c r="M13" t="n">
-        <v>1121.758975703636</v>
+        <v>1304.417078909569</v>
       </c>
       <c r="N13" t="n">
-        <v>1235.06201541324</v>
+        <v>1417.720118619173</v>
       </c>
       <c r="O13" t="n">
         <v>1519.07293747027</v>
       </c>
       <c r="P13" t="n">
-        <v>1915.456417501847</v>
+        <v>1915.456417501846</v>
       </c>
       <c r="Q13" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S13" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T13" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.538157271872</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="V13" t="n">
-        <v>1434.538157271872</v>
+        <v>1439.875379730128</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.538157271872</v>
+        <v>1165.022975902641</v>
       </c>
       <c r="X13" t="n">
-        <v>1191.974260717677</v>
+        <v>922.4590793484457</v>
       </c>
       <c r="Y13" t="n">
-        <v>1191.974260717677</v>
+        <v>696.1163110381877</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1651.326346725713</v>
+        <v>1296.688436069686</v>
       </c>
       <c r="C14" t="n">
-        <v>1651.326346725713</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.258467509623</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.281527657481</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="F14" t="n">
-        <v>722.1573458468811</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H14" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I14" t="n">
-        <v>83.28385069007356</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6508459321592</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K14" t="n">
-        <v>432.2746315182163</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L14" t="n">
-        <v>702.049775320867</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M14" t="n">
         <v>1007.372886491277</v>
@@ -5296,34 +5296,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P14" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q14" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R14" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S14" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T14" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U14" t="n">
-        <v>2056.663616770823</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V14" t="n">
-        <v>2056.663616770823</v>
+        <v>1440.978449291347</v>
       </c>
       <c r="W14" t="n">
-        <v>2056.663616770823</v>
+        <v>1296.688436069686</v>
       </c>
       <c r="X14" t="n">
-        <v>2056.663616770823</v>
+        <v>1296.688436069686</v>
       </c>
       <c r="Y14" t="n">
-        <v>1651.326346725713</v>
+        <v>1296.688436069686</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H15" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I15" t="n">
-        <v>62.22294035382063</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J15" t="n">
-        <v>140.3842883820539</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K15" t="n">
-        <v>286.6746405364524</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L15" t="n">
-        <v>490.9074852965161</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M15" t="n">
-        <v>732.383073168548</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N15" t="n">
-        <v>982.5912061173244</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O15" t="n">
-        <v>1207.872048919152</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P15" t="n">
-        <v>1385.538163113023</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R15" t="n">
         <v>1815.524390138853</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.831365210281</v>
+        <v>380.3974629510823</v>
       </c>
       <c r="C16" t="n">
-        <v>917.8588020891974</v>
+        <v>208.4248998299983</v>
       </c>
       <c r="D16" t="n">
-        <v>754.5420292159681</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="E16" t="n">
-        <v>588.3338233688216</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="F16" t="n">
-        <v>416.472049143382</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="G16" t="n">
-        <v>251.107482692027</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2454904075977</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I16" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J16" t="n">
         <v>161.6426112355429</v>
       </c>
       <c r="K16" t="n">
-        <v>489.7879925407227</v>
+        <v>360.8405505527782</v>
       </c>
       <c r="L16" t="n">
-        <v>974.5130865851158</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M16" t="n">
-        <v>1304.41707890957</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N16" t="n">
-        <v>1417.720118619174</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O16" t="n">
-        <v>1519.072937470271</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P16" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q16" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R16" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S16" t="n">
-        <v>1954.200281281118</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.200281281118</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.064509322572</v>
+        <v>1596.033967747059</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.064509322572</v>
+        <v>1314.322500355088</v>
       </c>
       <c r="W16" t="n">
-        <v>1399.212105495085</v>
+        <v>1039.470096527601</v>
       </c>
       <c r="X16" t="n">
-        <v>1279.997333922347</v>
+        <v>796.9061999734059</v>
       </c>
       <c r="Y16" t="n">
-        <v>1279.997333922347</v>
+        <v>570.563431663148</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>364.6741702065209</v>
+        <v>1225.095253647039</v>
       </c>
       <c r="C17" t="n">
-        <v>319.8077434096211</v>
+        <v>798.1945236603394</v>
       </c>
       <c r="D17" t="n">
-        <v>319.8077434096211</v>
+        <v>798.1945236603394</v>
       </c>
       <c r="E17" t="n">
-        <v>319.8077434096211</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="F17" t="n">
-        <v>319.8077434096211</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G17" t="n">
         <v>319.8077434096211</v>
@@ -5512,19 +5512,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I17" t="n">
-        <v>83.28385069007342</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J17" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K17" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M17" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N17" t="n">
         <v>1318.386188667469</v>
@@ -5545,22 +5545,22 @@
         <v>2056.663616770822</v>
       </c>
       <c r="T17" t="n">
-        <v>1844.446906848538</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U17" t="n">
-        <v>1586.251154242814</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V17" t="n">
-        <v>1586.251154242814</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W17" t="n">
-        <v>1189.859804543161</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="X17" t="n">
-        <v>1189.859804543161</v>
+        <v>1644.943617938569</v>
       </c>
       <c r="Y17" t="n">
-        <v>784.522534498051</v>
+        <v>1644.943617938569</v>
       </c>
     </row>
     <row r="18">
@@ -5585,25 +5585,25 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G18" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H18" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I18" t="n">
-        <v>66.79108879310026</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J18" t="n">
-        <v>144.9524368213335</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K18" t="n">
-        <v>291.2427889757321</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L18" t="n">
-        <v>495.4756337357958</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M18" t="n">
-        <v>736.9512216078276</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N18" t="n">
         <v>1260.586004317513</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>758.2585929117799</v>
+        <v>622.9613595052772</v>
       </c>
       <c r="C19" t="n">
-        <v>586.2860297906959</v>
+        <v>450.9887963841932</v>
       </c>
       <c r="D19" t="n">
-        <v>422.9692569174666</v>
+        <v>450.9887963841932</v>
       </c>
       <c r="E19" t="n">
-        <v>422.9692569174666</v>
+        <v>379.5402625119207</v>
       </c>
       <c r="F19" t="n">
-        <v>251.107482692027</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="G19" t="n">
-        <v>251.107482692027</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H19" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I19" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J19" t="n">
-        <v>83.72089458732202</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K19" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L19" t="n">
-        <v>649.308760822873</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M19" t="n">
-        <v>764.0635653344463</v>
+        <v>1498.147869294801</v>
       </c>
       <c r="N19" t="n">
-        <v>1191.391291693869</v>
+        <v>1611.450909004406</v>
       </c>
       <c r="O19" t="n">
-        <v>1670.446434848169</v>
+        <v>1712.803727855502</v>
       </c>
       <c r="P19" t="n">
         <v>2066.829914879745</v>
@@ -5697,28 +5697,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R19" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S19" t="n">
-        <v>1954.200281281117</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T19" t="n">
-        <v>1789.01249712675</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U19" t="n">
-        <v>1508.876725168204</v>
+        <v>1596.033967747059</v>
       </c>
       <c r="V19" t="n">
-        <v>1227.165257776233</v>
+        <v>1314.322500355088</v>
       </c>
       <c r="W19" t="n">
-        <v>1227.165257776233</v>
+        <v>1039.470096527601</v>
       </c>
       <c r="X19" t="n">
-        <v>984.6013612220379</v>
+        <v>1039.470096527601</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.2585929117799</v>
+        <v>813.1273282173429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>892.5072726368257</v>
+        <v>876.0742155222931</v>
       </c>
       <c r="C20" t="n">
-        <v>465.6065426501258</v>
+        <v>876.0742155222931</v>
       </c>
       <c r="D20" t="n">
-        <v>42.3139218351261</v>
+        <v>876.0742155222931</v>
       </c>
       <c r="E20" t="n">
-        <v>42.3139218351261</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="F20" t="n">
-        <v>42.3139218351261</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G20" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H20" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I20" t="n">
-        <v>83.28385069007345</v>
+        <v>83.28385069007334</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6508459321587</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K20" t="n">
-        <v>432.2746315182158</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0497753208665</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M20" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N20" t="n">
         <v>1318.386188667469</v>
@@ -5782,22 +5782,22 @@
         <v>2115.696091756305</v>
       </c>
       <c r="T20" t="n">
-        <v>2115.696091756305</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="U20" t="n">
-        <v>2115.696091756305</v>
+        <v>1645.283629228296</v>
       </c>
       <c r="V20" t="n">
-        <v>1758.206676882554</v>
+        <v>1287.794214354546</v>
       </c>
       <c r="W20" t="n">
-        <v>1724.075635760609</v>
+        <v>1287.794214354546</v>
       </c>
       <c r="X20" t="n">
-        <v>1312.355636928356</v>
+        <v>876.0742155222931</v>
       </c>
       <c r="Y20" t="n">
-        <v>1312.355636928356</v>
+        <v>876.0742155222931</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I21" t="n">
-        <v>85.68024619823245</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J21" t="n">
-        <v>163.8415942264657</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K21" t="n">
-        <v>310.1319463808642</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L21" t="n">
-        <v>514.3647911409279</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M21" t="n">
-        <v>755.8403790129597</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N21" t="n">
-        <v>1006.048511961736</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O21" t="n">
-        <v>1231.329354763564</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P21" t="n">
-        <v>1558.077461028305</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q21" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R21" t="n">
         <v>1815.524390138853</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.89979663781</v>
+        <v>953.969372925852</v>
       </c>
       <c r="C22" t="n">
-        <v>844.9272335167258</v>
+        <v>781.996809804768</v>
       </c>
       <c r="D22" t="n">
-        <v>681.6104606434965</v>
+        <v>618.6800369315387</v>
       </c>
       <c r="E22" t="n">
-        <v>515.40225479635</v>
+        <v>452.4718310843922</v>
       </c>
       <c r="F22" t="n">
-        <v>343.5404805709104</v>
+        <v>280.6100568589526</v>
       </c>
       <c r="G22" t="n">
-        <v>178.1759141195554</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="H22" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I22" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J22" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K22" t="n">
-        <v>489.7879925407226</v>
+        <v>411.8662758925017</v>
       </c>
       <c r="L22" t="n">
-        <v>695.5055779313109</v>
+        <v>896.591369936895</v>
       </c>
       <c r="M22" t="n">
-        <v>1219.140360640996</v>
+        <v>1011.346174448468</v>
       </c>
       <c r="N22" t="n">
-        <v>1730.476323192481</v>
+        <v>1522.682136999953</v>
       </c>
       <c r="O22" t="n">
-        <v>1831.829142043577</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P22" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q22" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R22" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S22" t="n">
-        <v>2108.783173864624</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.256821813924</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.256821813924</v>
+        <v>1471.385673307534</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.545354421953</v>
+        <v>1471.385673307534</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.545354421953</v>
+        <v>1196.533269480047</v>
       </c>
       <c r="X22" t="n">
-        <v>1344.981457867758</v>
+        <v>953.969372925852</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.6386895575</v>
+        <v>953.969372925852</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1149.598617260617</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="C23" t="n">
-        <v>722.6978872739173</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="D23" t="n">
-        <v>722.6978872739173</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="E23" t="n">
-        <v>444.6635242723861</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F23" t="n">
-        <v>444.6635242723861</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G23" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H23" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I23" t="n">
-        <v>83.28385069007334</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J23" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K23" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0497753208666</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M23" t="n">
         <v>1007.372886491276</v>
@@ -6019,22 +6019,22 @@
         <v>2115.696091756305</v>
       </c>
       <c r="T23" t="n">
-        <v>1903.479381834021</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U23" t="n">
-        <v>1903.479381834021</v>
+        <v>1857.50033915058</v>
       </c>
       <c r="V23" t="n">
-        <v>1545.98996696027</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="W23" t="n">
-        <v>1149.598617260617</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="X23" t="n">
-        <v>1149.598617260617</v>
+        <v>1500.01092427683</v>
       </c>
       <c r="Y23" t="n">
-        <v>1149.598617260617</v>
+        <v>1500.01092427683</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J24" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K24" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L24" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M24" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N24" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O24" t="n">
-        <v>1207.872048919152</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P24" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R24" t="n">
         <v>1815.524390138853</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5826199800366</v>
+        <v>658.5444356338367</v>
       </c>
       <c r="C25" t="n">
-        <v>280.6100568589526</v>
+        <v>486.5718725127526</v>
       </c>
       <c r="D25" t="n">
-        <v>280.6100568589526</v>
+        <v>486.5718725127526</v>
       </c>
       <c r="E25" t="n">
-        <v>280.6100568589526</v>
+        <v>320.3636666656062</v>
       </c>
       <c r="F25" t="n">
-        <v>280.6100568589526</v>
+        <v>148.5018924401666</v>
       </c>
       <c r="G25" t="n">
-        <v>115.2454904075976</v>
+        <v>148.5018924401666</v>
       </c>
       <c r="H25" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I25" t="n">
         <v>42.3139218351261</v>
@@ -6153,13 +6153,13 @@
         <v>489.7879925407226</v>
       </c>
       <c r="L25" t="n">
-        <v>598.1241929939508</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M25" t="n">
-        <v>1121.758975703636</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N25" t="n">
-        <v>1417.720118619173</v>
+        <v>1202.570930806293</v>
       </c>
       <c r="O25" t="n">
         <v>1519.07293747027</v>
@@ -6171,28 +6171,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R25" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S25" t="n">
-        <v>1997.715280073193</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T25" t="n">
-        <v>1758.188928022494</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U25" t="n">
-        <v>1478.053156063948</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V25" t="n">
-        <v>1196.341688671976</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W25" t="n">
-        <v>921.4892848444895</v>
+        <v>884.8872039440946</v>
       </c>
       <c r="X25" t="n">
-        <v>678.9253882902946</v>
+        <v>884.8872039440946</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5826199800366</v>
+        <v>658.5444356338367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.978034063463</v>
+        <v>1743.608394299568</v>
       </c>
       <c r="C26" t="n">
-        <v>1169.077304076763</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D26" t="n">
-        <v>745.7846832617636</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E26" t="n">
-        <v>319.8077434096211</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F26" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G26" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H26" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I26" t="n">
-        <v>83.28385069007345</v>
+        <v>83.28385069007339</v>
       </c>
       <c r="J26" t="n">
-        <v>219.6508459321587</v>
+        <v>219.6508459321589</v>
       </c>
       <c r="K26" t="n">
-        <v>432.2746315182158</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0497753208665</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M26" t="n">
         <v>1007.372886491277</v>
@@ -6253,25 +6253,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S26" t="n">
-        <v>2066.390496591472</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T26" t="n">
-        <v>1854.173786669188</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U26" t="n">
-        <v>1595.978034063463</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V26" t="n">
-        <v>1595.978034063463</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W26" t="n">
-        <v>1595.978034063463</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="X26" t="n">
-        <v>1595.978034063463</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.978034063463</v>
+        <v>2056.663616770822</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>85.68024619823245</v>
       </c>
       <c r="J27" t="n">
-        <v>163.8415942264657</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K27" t="n">
-        <v>310.1319463808642</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L27" t="n">
-        <v>514.3647911409279</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M27" t="n">
-        <v>755.8403790129597</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N27" t="n">
-        <v>1006.048511961736</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O27" t="n">
-        <v>1231.329354763564</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P27" t="n">
-        <v>1408.995468957434</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R27" t="n">
         <v>1815.524390138853</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>787.7611670787055</v>
+        <v>751.7613851376954</v>
       </c>
       <c r="C28" t="n">
-        <v>615.7886039576215</v>
+        <v>579.7888220166113</v>
       </c>
       <c r="D28" t="n">
-        <v>452.4718310843922</v>
+        <v>416.472049143382</v>
       </c>
       <c r="E28" t="n">
-        <v>452.4718310843922</v>
+        <v>416.472049143382</v>
       </c>
       <c r="F28" t="n">
-        <v>280.6100568589526</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G28" t="n">
-        <v>115.2454904075976</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H28" t="n">
         <v>115.2454904075976</v>
@@ -6387,19 +6387,19 @@
         <v>83.72089458732201</v>
       </c>
       <c r="K28" t="n">
-        <v>411.8662758925017</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L28" t="n">
-        <v>896.591369936895</v>
+        <v>565.3005246308111</v>
       </c>
       <c r="M28" t="n">
-        <v>1420.22615264658</v>
+        <v>680.0553291423844</v>
       </c>
       <c r="N28" t="n">
-        <v>1533.529192356185</v>
+        <v>1191.391291693869</v>
       </c>
       <c r="O28" t="n">
-        <v>1983.202639421476</v>
+        <v>1670.446434848169</v>
       </c>
       <c r="P28" t="n">
         <v>2066.829914879745</v>
@@ -6408,28 +6408,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R28" t="n">
-        <v>2115.696091756305</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="S28" t="n">
-        <v>2115.696091756305</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="T28" t="n">
-        <v>2003.397671874682</v>
+        <v>1869.256821813924</v>
       </c>
       <c r="U28" t="n">
-        <v>2003.397671874682</v>
+        <v>1589.121049855378</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.686204482711</v>
+        <v>1307.409582463407</v>
       </c>
       <c r="W28" t="n">
-        <v>1446.833800655224</v>
+        <v>1032.55717863592</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.269904101029</v>
+        <v>789.9932820817249</v>
       </c>
       <c r="Y28" t="n">
-        <v>977.9271357907712</v>
+        <v>751.7613851376954</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>890.7307244607257</v>
+        <v>1491.759383001768</v>
       </c>
       <c r="C29" t="n">
-        <v>890.7307244607257</v>
+        <v>1064.858653015068</v>
       </c>
       <c r="D29" t="n">
-        <v>467.4381036457259</v>
+        <v>641.5660322000685</v>
       </c>
       <c r="E29" t="n">
-        <v>467.4381036457259</v>
+        <v>641.5660322000685</v>
       </c>
       <c r="F29" t="n">
-        <v>42.3139218351261</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G29" t="n">
         <v>42.3139218351261</v>
@@ -6460,25 +6460,25 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I29" t="n">
-        <v>83.28385069007339</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J29" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K29" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M29" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N29" t="n">
         <v>1318.386188667469</v>
       </c>
       <c r="O29" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.90025066081</v>
       </c>
       <c r="P29" t="n">
         <v>1853.09434551636</v>
@@ -6496,19 +6496,19 @@
         <v>1903.479381834021</v>
       </c>
       <c r="U29" t="n">
-        <v>1645.283629228296</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="V29" t="n">
-        <v>1287.794214354546</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="W29" t="n">
-        <v>891.4028646548927</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="X29" t="n">
-        <v>891.4028646548927</v>
+        <v>1491.759383001768</v>
       </c>
       <c r="Y29" t="n">
-        <v>891.4028646548927</v>
+        <v>1491.759383001768</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I30" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J30" t="n">
         <v>312.9235862973368</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>505.9503423261221</v>
+        <v>715.6732379020254</v>
       </c>
       <c r="C31" t="n">
-        <v>505.9503423261221</v>
+        <v>543.7006747809414</v>
       </c>
       <c r="D31" t="n">
-        <v>342.6335694528928</v>
+        <v>380.3839019077121</v>
       </c>
       <c r="E31" t="n">
-        <v>342.6335694528928</v>
+        <v>214.1756960605657</v>
       </c>
       <c r="F31" t="n">
-        <v>170.7717952274532</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G31" t="n">
-        <v>170.7717952274532</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H31" t="n">
         <v>42.3139218351261</v>
@@ -6621,16 +6621,16 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J31" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K31" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L31" t="n">
-        <v>974.5130865851158</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M31" t="n">
-        <v>1390.844456557572</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N31" t="n">
         <v>1504.147496267176</v>
@@ -6654,19 +6654,19 @@
         <v>1721.586847122099</v>
       </c>
       <c r="U31" t="n">
-        <v>1721.586847122099</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V31" t="n">
-        <v>1439.875379730128</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W31" t="n">
-        <v>1165.022975902641</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="X31" t="n">
-        <v>922.4590793484457</v>
+        <v>1132.181974924349</v>
       </c>
       <c r="Y31" t="n">
-        <v>696.1163110381877</v>
+        <v>905.8392066140912</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1719.057266750128</v>
+        <v>823.4244693239535</v>
       </c>
       <c r="C32" t="n">
-        <v>1719.057266750128</v>
+        <v>396.5237393372536</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.764645935128</v>
+        <v>396.5237393372536</v>
       </c>
       <c r="E32" t="n">
-        <v>869.7877060829859</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F32" t="n">
-        <v>444.6635242723861</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G32" t="n">
         <v>42.3139218351261</v>
@@ -6697,16 +6697,16 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I32" t="n">
-        <v>83.283850690073</v>
+        <v>83.28385069007342</v>
       </c>
       <c r="J32" t="n">
-        <v>219.6508459321587</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K32" t="n">
-        <v>432.2746315182158</v>
+        <v>432.2746315182159</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0497753208664</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M32" t="n">
         <v>1007.372886491276</v>
@@ -6715,7 +6715,7 @@
         <v>1318.386188667469</v>
       </c>
       <c r="O32" t="n">
-        <v>1609.90025066081</v>
+        <v>1609.900250660811</v>
       </c>
       <c r="P32" t="n">
         <v>1853.09434551636</v>
@@ -6730,22 +6730,22 @@
         <v>2056.663616770822</v>
       </c>
       <c r="T32" t="n">
-        <v>2056.663616770822</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="U32" t="n">
-        <v>2056.663616770822</v>
+        <v>1586.251154242814</v>
       </c>
       <c r="V32" t="n">
-        <v>1719.057266750128</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="W32" t="n">
-        <v>1719.057266750128</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="X32" t="n">
-        <v>1719.057266750128</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="Y32" t="n">
-        <v>1719.057266750128</v>
+        <v>823.4244693239535</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>62.22294035382062</v>
       </c>
       <c r="J33" t="n">
-        <v>312.9235862973368</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K33" t="n">
-        <v>459.2139384517353</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L33" t="n">
-        <v>663.4467832117989</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M33" t="n">
-        <v>904.9223710838307</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N33" t="n">
-        <v>1155.130504032607</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.411346834435</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P33" t="n">
-        <v>1558.077461028305</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q33" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R33" t="n">
         <v>1815.524390138853</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.831365210281</v>
+        <v>500.6669741950631</v>
       </c>
       <c r="C34" t="n">
-        <v>917.8588020891974</v>
+        <v>328.6944110739792</v>
       </c>
       <c r="D34" t="n">
-        <v>754.5420292159681</v>
+        <v>328.6944110739792</v>
       </c>
       <c r="E34" t="n">
-        <v>588.3338233688216</v>
+        <v>328.6944110739792</v>
       </c>
       <c r="F34" t="n">
-        <v>416.472049143382</v>
+        <v>156.8326368485396</v>
       </c>
       <c r="G34" t="n">
-        <v>251.107482692027</v>
+        <v>156.8326368485396</v>
       </c>
       <c r="H34" t="n">
         <v>115.2454904075976</v>
@@ -6858,52 +6858,52 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J34" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K34" t="n">
-        <v>242.5053834267005</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L34" t="n">
-        <v>350.8415838799288</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M34" t="n">
-        <v>874.4763665896141</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N34" t="n">
-        <v>1385.812329141099</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O34" t="n">
-        <v>1831.829142043577</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P34" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q34" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R34" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S34" t="n">
-        <v>1954.200281281117</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T34" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U34" t="n">
-        <v>1434.538157271872</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.826689879901</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W34" t="n">
-        <v>1152.826689879901</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.826689879901</v>
+        <v>917.1757112173867</v>
       </c>
       <c r="Y34" t="n">
-        <v>1152.826689879901</v>
+        <v>690.8329429071288</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1571.426906514023</v>
+        <v>720.8043326236304</v>
       </c>
       <c r="C35" t="n">
-        <v>1571.426906514023</v>
+        <v>720.8043326236304</v>
       </c>
       <c r="D35" t="n">
-        <v>1148.134285699024</v>
+        <v>720.8043326236304</v>
       </c>
       <c r="E35" t="n">
-        <v>722.1573458468811</v>
+        <v>720.8043326236304</v>
       </c>
       <c r="F35" t="n">
-        <v>722.1573458468811</v>
+        <v>295.6801508130307</v>
       </c>
       <c r="G35" t="n">
-        <v>319.8077434096211</v>
+        <v>295.6801508130307</v>
       </c>
       <c r="H35" t="n">
         <v>42.3139218351261</v>
@@ -6937,16 +6937,16 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J35" t="n">
-        <v>219.6508459321591</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2746315182161</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M35" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N35" t="n">
         <v>1318.386188667469</v>
@@ -6964,25 +6964,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S35" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T35" t="n">
-        <v>1844.446906848538</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="U35" t="n">
-        <v>1586.251154242814</v>
+        <v>1903.479381834021</v>
       </c>
       <c r="V35" t="n">
-        <v>1586.251154242814</v>
+        <v>1545.98996696027</v>
       </c>
       <c r="W35" t="n">
-        <v>1586.251154242814</v>
+        <v>1545.98996696027</v>
       </c>
       <c r="X35" t="n">
-        <v>1586.251154242814</v>
+        <v>1545.98996696027</v>
       </c>
       <c r="Y35" t="n">
-        <v>1571.426906514023</v>
+        <v>1140.652696915161</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I36" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J36" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K36" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L36" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M36" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N36" t="n">
         <v>1155.130504032607</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.623159363135</v>
+        <v>926.5145923370521</v>
       </c>
       <c r="C37" t="n">
-        <v>751.6505962420509</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="D37" t="n">
-        <v>588.3338233688216</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="E37" t="n">
         <v>588.3338233688216</v>
@@ -7095,22 +7095,22 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J37" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K37" t="n">
-        <v>489.7879925407226</v>
+        <v>305.5908267996838</v>
       </c>
       <c r="L37" t="n">
-        <v>695.5055779313109</v>
+        <v>413.9270272529121</v>
       </c>
       <c r="M37" t="n">
-        <v>1219.140360640996</v>
+        <v>528.6818317644854</v>
       </c>
       <c r="N37" t="n">
-        <v>1730.476323192481</v>
+        <v>1040.01779431597</v>
       </c>
       <c r="O37" t="n">
-        <v>1831.829142043577</v>
+        <v>1519.07293747027</v>
       </c>
       <c r="P37" t="n">
         <v>1915.456417501846</v>
@@ -7119,28 +7119,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R37" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S37" t="n">
-        <v>1954.200281281117</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T37" t="n">
-        <v>1954.200281281117</v>
+        <v>1867.298693305542</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.064509322571</v>
+        <v>1867.298693305542</v>
       </c>
       <c r="V37" t="n">
-        <v>1392.3530419306</v>
+        <v>1585.587225913571</v>
       </c>
       <c r="W37" t="n">
-        <v>1117.500638103113</v>
+        <v>1585.587225913571</v>
       </c>
       <c r="X37" t="n">
-        <v>1117.500638103113</v>
+        <v>1343.023329359376</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.789128075201</v>
+        <v>1116.680561049118</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1019.261272511899</v>
+        <v>1574.182257644181</v>
       </c>
       <c r="C38" t="n">
-        <v>592.3605425251988</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="D38" t="n">
-        <v>169.067921710199</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="E38" t="n">
-        <v>169.067921710199</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F38" t="n">
-        <v>169.067921710199</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G38" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H38" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I38" t="n">
-        <v>83.28385069007345</v>
+        <v>83.28385069007334</v>
       </c>
       <c r="J38" t="n">
-        <v>219.6508459321587</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2746315182158</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0497753208665</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M38" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N38" t="n">
         <v>1318.386188667469</v>
@@ -7219,7 +7219,7 @@
         <v>1844.446906848538</v>
       </c>
       <c r="Y38" t="n">
-        <v>1439.109636803429</v>
+        <v>1844.446906848538</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I39" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J39" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K39" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L39" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M39" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N39" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O39" t="n">
-        <v>1207.872048919152</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P39" t="n">
-        <v>1385.538163113023</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q39" t="n">
         <v>1668.730683886594</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.89979663781</v>
+        <v>743.230870749258</v>
       </c>
       <c r="C40" t="n">
-        <v>844.9272335167258</v>
+        <v>571.258307628174</v>
       </c>
       <c r="D40" t="n">
-        <v>681.6104606434965</v>
+        <v>407.9415347549447</v>
       </c>
       <c r="E40" t="n">
-        <v>515.40225479635</v>
+        <v>280.6100568589526</v>
       </c>
       <c r="F40" t="n">
-        <v>343.5404805709104</v>
+        <v>280.6100568589526</v>
       </c>
       <c r="G40" t="n">
-        <v>178.1759141195554</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="H40" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I40" t="n">
         <v>42.3139218351261</v>
@@ -7335,22 +7335,22 @@
         <v>161.6426112355429</v>
       </c>
       <c r="K40" t="n">
-        <v>274.4131729047751</v>
+        <v>242.5053834267005</v>
       </c>
       <c r="L40" t="n">
-        <v>382.7493733580034</v>
+        <v>350.8415838799288</v>
       </c>
       <c r="M40" t="n">
-        <v>906.3841560676888</v>
+        <v>874.4763665896141</v>
       </c>
       <c r="N40" t="n">
-        <v>1417.720118619173</v>
+        <v>1385.812329141099</v>
       </c>
       <c r="O40" t="n">
-        <v>1519.07293747027</v>
+        <v>1864.867472295398</v>
       </c>
       <c r="P40" t="n">
-        <v>1915.456417501846</v>
+        <v>1948.494747753667</v>
       </c>
       <c r="Q40" t="n">
         <v>2115.696091756305</v>
@@ -7359,25 +7359,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S40" t="n">
-        <v>2115.696091756305</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T40" t="n">
-        <v>1988.396709446166</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.26093748762</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.26093748762</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.408533660133</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.408533660133</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.065765349875</v>
+        <v>933.3968394613237</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1998.327636500723</v>
+        <v>966.8995010413153</v>
       </c>
       <c r="C41" t="n">
-        <v>1571.426906514023</v>
+        <v>867.9561450873858</v>
       </c>
       <c r="D41" t="n">
-        <v>1148.134285699024</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="E41" t="n">
-        <v>722.1573458468811</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="F41" t="n">
-        <v>722.1573458468811</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H41" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I41" t="n">
-        <v>83.28385069007339</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J41" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321591</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2746315182161</v>
+        <v>432.2746315182162</v>
       </c>
       <c r="L41" t="n">
         <v>702.0497753208668</v>
@@ -7438,25 +7438,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S41" t="n">
-        <v>2056.663616770822</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T41" t="n">
-        <v>2056.663616770822</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U41" t="n">
-        <v>2056.663616770822</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V41" t="n">
-        <v>2056.663616770822</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="W41" t="n">
-        <v>2056.663616770822</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="X41" t="n">
-        <v>2056.663616770822</v>
+        <v>1386.747865332845</v>
       </c>
       <c r="Y41" t="n">
-        <v>2056.663616770822</v>
+        <v>1386.747865332845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G42" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H42" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I42" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823247</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973364</v>
       </c>
       <c r="K42" t="n">
-        <v>286.6746405364524</v>
+        <v>459.213938451735</v>
       </c>
       <c r="L42" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117987</v>
       </c>
       <c r="M42" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N42" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O42" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.524390138853</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.5128256330047</v>
+        <v>218.9016524758956</v>
       </c>
       <c r="C43" t="n">
-        <v>379.5402625119207</v>
+        <v>46.92908935481157</v>
       </c>
       <c r="D43" t="n">
-        <v>379.5402625119207</v>
+        <v>46.92908935481157</v>
       </c>
       <c r="E43" t="n">
-        <v>379.5402625119207</v>
+        <v>46.92908935481157</v>
       </c>
       <c r="F43" t="n">
-        <v>207.6784882864811</v>
+        <v>46.92908935481157</v>
       </c>
       <c r="G43" t="n">
-        <v>42.3139218351261</v>
+        <v>46.92908935481157</v>
       </c>
       <c r="H43" t="n">
         <v>42.3139218351261</v>
@@ -7569,52 +7569,52 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J43" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732202</v>
       </c>
       <c r="K43" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L43" t="n">
-        <v>974.5130865851158</v>
+        <v>469.1767510060068</v>
       </c>
       <c r="M43" t="n">
-        <v>1498.147869294801</v>
+        <v>992.8115337156923</v>
       </c>
       <c r="N43" t="n">
-        <v>1730.476323192481</v>
+        <v>1504.147496267177</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.829142043577</v>
+        <v>1983.202639421477</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q43" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R43" t="n">
-        <v>2115.696091756305</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="S43" t="n">
-        <v>2047.285102387527</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="T43" t="n">
-        <v>2047.285102387527</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U43" t="n">
-        <v>1767.149330428981</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="V43" t="n">
-        <v>1485.43786303701</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.585459209523</v>
+        <v>877.9742860524141</v>
       </c>
       <c r="X43" t="n">
-        <v>968.0215626553284</v>
+        <v>635.4103894982192</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.6787943450704</v>
+        <v>409.0676211879612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1573.258467509623</v>
+        <v>1743.608394299568</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.258467509623</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.258467509623</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.281527657481</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F44" t="n">
-        <v>722.1573458468811</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G44" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H44" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I44" t="n">
-        <v>83.28385069007345</v>
+        <v>83.28385069007341</v>
       </c>
       <c r="J44" t="n">
         <v>219.650845932159</v>
       </c>
       <c r="K44" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182161</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0497753208666</v>
+        <v>702.0497753208668</v>
       </c>
       <c r="M44" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N44" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O44" t="n">
         <v>1609.900250660811</v>
       </c>
       <c r="P44" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q44" t="n">
         <v>2027.89491136433</v>
@@ -7678,22 +7678,22 @@
         <v>2056.663616770823</v>
       </c>
       <c r="T44" t="n">
-        <v>1844.446906848539</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U44" t="n">
-        <v>1586.251154242814</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.251154242814</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="W44" t="n">
-        <v>1586.251154242814</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="X44" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="Y44" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I45" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823247</v>
       </c>
       <c r="J45" t="n">
-        <v>140.3842883820539</v>
+        <v>163.8415942264658</v>
       </c>
       <c r="K45" t="n">
-        <v>564.669438736641</v>
+        <v>310.1319463808643</v>
       </c>
       <c r="L45" t="n">
-        <v>768.9022834967047</v>
+        <v>514.364791140928</v>
       </c>
       <c r="M45" t="n">
-        <v>1010.377871368737</v>
+        <v>755.8403790129598</v>
       </c>
       <c r="N45" t="n">
-        <v>1260.586004317513</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O45" t="n">
-        <v>1485.866847119341</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.524390138853</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.8273133696598</v>
+        <v>743.1770164220616</v>
       </c>
       <c r="C46" t="n">
-        <v>427.8547502485758</v>
+        <v>571.2044533009775</v>
       </c>
       <c r="D46" t="n">
-        <v>427.8547502485758</v>
+        <v>571.2044533009775</v>
       </c>
       <c r="E46" t="n">
-        <v>427.8547502485758</v>
+        <v>404.9962474538311</v>
       </c>
       <c r="F46" t="n">
-        <v>255.9929760231362</v>
+        <v>233.1344732283915</v>
       </c>
       <c r="G46" t="n">
-        <v>90.62840957178122</v>
+        <v>233.1344732283915</v>
       </c>
       <c r="H46" t="n">
-        <v>90.62840957178122</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I46" t="n">
         <v>42.3139218351261</v>
@@ -7809,22 +7809,22 @@
         <v>161.6426112355429</v>
       </c>
       <c r="K46" t="n">
-        <v>242.5053834267005</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L46" t="n">
-        <v>727.2304774710938</v>
+        <v>963.3334474726918</v>
       </c>
       <c r="M46" t="n">
-        <v>1250.865260180779</v>
+        <v>1078.088251984265</v>
       </c>
       <c r="N46" t="n">
-        <v>1762.201222732264</v>
+        <v>1191.391291693869</v>
       </c>
       <c r="O46" t="n">
-        <v>1863.55404158336</v>
+        <v>1670.446434848169</v>
       </c>
       <c r="P46" t="n">
-        <v>1947.181317041629</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q46" t="n">
         <v>2115.696091756305</v>
@@ -7833,25 +7833,25 @@
         <v>2108.783173864624</v>
       </c>
       <c r="S46" t="n">
-        <v>2108.783173864624</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.256821813924</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.121049855378</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.409582463407</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.55717863592</v>
+        <v>1159.685753444385</v>
       </c>
       <c r="X46" t="n">
-        <v>789.9932820817254</v>
+        <v>1159.685753444385</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.9932820817254</v>
+        <v>933.3429851341273</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -8218,13 +8218,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -8236,7 +8236,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -8297,7 +8297,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -8388,7 +8388,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -8458,22 +8458,22 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L8" t="n">
-        <v>9.587300011056808</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M8" t="n">
-        <v>5.4694522901083</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N8" t="n">
-        <v>4.800636714419433</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O8" t="n">
-        <v>6.721973758497697</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P8" t="n">
         <v>11.40009215480153</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.46813718922236</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R8" t="n">
         <v>23.59858876881258</v>
@@ -8534,10 +8534,10 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K9" t="n">
-        <v>6.672659757291239</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L9" t="n">
-        <v>1.368767089206766</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.173356832861341</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q9" t="n">
         <v>10.31511249629769</v>
@@ -8616,13 +8616,13 @@
         <v>11.47844714143665</v>
       </c>
       <c r="L10" t="n">
-        <v>9.779680524136499</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M10" t="n">
-        <v>9.776482718690756</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N10" t="n">
-        <v>8.254274397298504</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O10" t="n">
         <v>10.95837753944877</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="P12" t="n">
-        <v>150.5878707786573</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>184.5031345514472</v>
       </c>
       <c r="M13" t="n">
         <v>413.0100789879921</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>184.5031345514476</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.2821191063461</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>119.5304718445229</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>217.3224119322026</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.614291352807719</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1885351120292</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N19" t="n">
-        <v>317.1966531816346</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>273.1302137030044</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>150.5878707786578</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>98.36503529026263</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>362.795639970128</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>184.5031345514473</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>217.3224119322019</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>257.1085781371484</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>295.3339973728314</v>
       </c>
       <c r="M28" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>351.8390183981767</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>174.2821191063464</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M31" t="n">
-        <v>304.6227933948313</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>174.2821191063464</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M34" t="n">
         <v>413.0100789879921</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>348.1454485367495</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>174.2821191063463</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>142.4314747688931</v>
       </c>
       <c r="L37" t="n">
-        <v>98.36503529026263</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.2821191063462</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10983,7 +10983,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>32.2300903818935</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>119.530471844523</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>150.5878707786573</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>198.2392765396958</v>
       </c>
       <c r="M43" t="n">
-        <v>413.010078987992</v>
+        <v>413.0100789879922</v>
       </c>
       <c r="N43" t="n">
-        <v>120.2276910990656</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8028264648369</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>150.5878707786574</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>368.898236847213</v>
       </c>
       <c r="M46" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.8571695334505</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1136478495507838</v>
+        <v>0.1136478495507839</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>146.2746325506567</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>254.5695283302025</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.48251013695905</v>
       </c>
       <c r="E13" t="n">
-        <v>87.14284247262296</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>341.7724941829204</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>249.580323113212</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>160.9446577164149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>122.115633731642</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.213960157902</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>346.4403644182972</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>93.81207525512521</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T19" t="n">
-        <v>73.59518221736866</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>269.3394694749631</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.6377054919304</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.54280503445158</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I22" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3344142389604</v>
+        <v>29.63525216254112</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>146.4631510821051</v>
+        <v>72.51506780046572</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5033723615851</v>
+        <v>29.37728146259498</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S25" t="n">
-        <v>43.0798488041552</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>105.7252104020731</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.629611022443058</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.0370636576713</v>
       </c>
       <c r="T28" t="n">
-        <v>125.9556528473863</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>186.2297626525661</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>414.9844618563894</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>225.9394571440881</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.71888335875</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>163.7109207868414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.330077703181203</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I31" t="n">
         <v>72.20225288674683</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>212.8562010698927</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>71.04945112651478</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H32" t="n">
         <v>274.71888335875</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>19.68423420452598</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -24985,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.8989376020219</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.33209738505255</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>23.88631667062455</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6078920931561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1310885301926</v>
+        <v>144.2547277216084</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.4049456995218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>148.0878779363008</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>272.8396465365652</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>38.4879606716429</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>6.843788712764123</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>111.1047000431556</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357.8972601812169</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>324.6778002924427</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25797,13 +25797,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5033723615851</v>
+        <v>129.9343565170965</v>
       </c>
       <c r="I43" t="n">
         <v>72.20225288674683</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>85.31018418258171</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>361.3390054817398</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>394.7400389780711</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5033723615851</v>
+        <v>17.79327936899917</v>
       </c>
       <c r="I46" t="n">
-        <v>24.37091002745827</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354245.7753285442</v>
+        <v>354245.7753285441</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354245.7753285442</v>
+        <v>354245.775328544</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354245.775328544</v>
+        <v>354245.7753285441</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354245.7753285441</v>
+        <v>354245.775328544</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354245.7753285441</v>
+        <v>354245.7753285442</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>444671.3004803269</v>
       </c>
       <c r="C2" t="n">
-        <v>444672.3489394088</v>
+        <v>444672.3489394089</v>
       </c>
       <c r="D2" t="n">
-        <v>444673.0679014574</v>
+        <v>444673.0679014575</v>
       </c>
       <c r="E2" t="n">
-        <v>262641.831353683</v>
+        <v>262641.8313536829</v>
       </c>
       <c r="F2" t="n">
-        <v>262641.8313536831</v>
+        <v>262641.8313536829</v>
       </c>
       <c r="G2" t="n">
         <v>262641.831353683</v>
@@ -26337,16 +26337,16 @@
         <v>262641.8313536829</v>
       </c>
       <c r="J2" t="n">
-        <v>262641.8313536829</v>
+        <v>262641.831353683</v>
       </c>
       <c r="K2" t="n">
         <v>262641.8313536829</v>
       </c>
       <c r="L2" t="n">
+        <v>262641.8313536829</v>
+      </c>
+      <c r="M2" t="n">
         <v>262641.831353683</v>
-      </c>
-      <c r="M2" t="n">
-        <v>262641.8313536829</v>
       </c>
       <c r="N2" t="n">
         <v>262641.831353683</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>3849.713455507073</v>
@@ -26420,13 +26420,13 @@
         <v>313397.1105558039</v>
       </c>
       <c r="C4" t="n">
-        <v>312088.1817355567</v>
+        <v>312088.1817355568</v>
       </c>
       <c r="D4" t="n">
         <v>311225.777516065</v>
       </c>
       <c r="E4" t="n">
-        <v>24264.78036142071</v>
+        <v>24264.7803614207</v>
       </c>
       <c r="F4" t="n">
         <v>24264.7803614207</v>
@@ -26435,10 +26435,10 @@
         <v>24264.7803614207</v>
       </c>
       <c r="H4" t="n">
-        <v>24264.78036142071</v>
+        <v>24264.7803614207</v>
       </c>
       <c r="I4" t="n">
-        <v>24264.78036142071</v>
+        <v>24264.7803614207</v>
       </c>
       <c r="J4" t="n">
         <v>24264.7803614207</v>
@@ -26478,10 +26478,10 @@
         <v>34614.67030379765</v>
       </c>
       <c r="E5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="F5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="G5" t="n">
         <v>42839.04122415993</v>
@@ -26508,7 +26508,7 @@
         <v>42839.04122415993</v>
       </c>
       <c r="O5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415994</v>
       </c>
       <c r="P5" t="n">
         <v>42839.04122415994</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60051.35339667241</v>
+        <v>60029.67027658097</v>
       </c>
       <c r="C6" t="n">
-        <v>94182.98252785197</v>
+        <v>94161.30278988661</v>
       </c>
       <c r="D6" t="n">
-        <v>96349.84119493573</v>
+        <v>96328.1637762029</v>
       </c>
       <c r="E6" t="n">
-        <v>-319620.960171873</v>
+        <v>-320229.8351278569</v>
       </c>
       <c r="F6" t="n">
-        <v>195538.0097681024</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="G6" t="n">
-        <v>195538.0097681024</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="H6" t="n">
-        <v>195538.0097681025</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="I6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="J6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="K6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="L6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121185</v>
       </c>
       <c r="M6" t="n">
-        <v>63728.02755559271</v>
+        <v>63119.15259960898</v>
       </c>
       <c r="N6" t="n">
-        <v>195538.0097681024</v>
+        <v>194929.1348121186</v>
       </c>
       <c r="O6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121186</v>
       </c>
       <c r="P6" t="n">
-        <v>195538.0097681023</v>
+        <v>194929.1348121185</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>42.37941378408804</v>
       </c>
       <c r="D3" t="n">
-        <v>45.27845430264449</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="F3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="G3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="H3" t="n">
         <v>489.9293866726653</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="F4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="G4" t="n">
         <v>528.9240229390762</v>
@@ -26828,7 +26828,7 @@
         <v>528.9240229390762</v>
       </c>
       <c r="O4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390763</v>
       </c>
       <c r="P4" t="n">
         <v>528.9240229390763</v>
@@ -26968,7 +26968,7 @@
         <v>2.89904051855644</v>
       </c>
       <c r="E3" t="n">
-        <v>444.6509323700209</v>
+        <v>444.6509323700208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K4" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31521,22 +31521,22 @@
         <v>1.864152643726463</v>
       </c>
       <c r="I8" t="n">
-        <v>7.017477827146541</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J8" t="n">
-        <v>15.44905411404653</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K8" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L8" t="n">
-        <v>28.72474242156612</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M8" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N8" t="n">
-        <v>32.47898612002659</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O8" t="n">
         <v>30.6689855975264</v>
@@ -31545,7 +31545,7 @@
         <v>26.17526965542977</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.65653741537568</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R8" t="n">
         <v>11.43406112598389</v>
@@ -31554,7 +31554,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7968097837580953</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U8" t="n">
         <v>0.01456191495160424</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09739139227361268</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9405958148530489</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I9" t="n">
         <v>3.353168549771314</v>
       </c>
       <c r="J9" t="n">
-        <v>9.201350793710048</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K9" t="n">
-        <v>15.7265740760421</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L9" t="n">
         <v>21.14631962502279</v>
@@ -31624,16 +31624,16 @@
         <v>18.59748437196732</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.43192579268081</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R9" t="n">
-        <v>6.046809425549393</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S9" t="n">
         <v>1.809002395959427</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3925556556993422</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U9" t="n">
         <v>0.006407328439053468</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08164967169329333</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7259398083276449</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I10" t="n">
         <v>2.455428308740131</v>
       </c>
       <c r="J10" t="n">
-        <v>5.772631788715838</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K10" t="n">
-        <v>9.486207311275351</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L10" t="n">
         <v>12.13907937156472</v>
@@ -31703,10 +31703,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.837046599699318</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R10" t="n">
-        <v>3.671266147227534</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S10" t="n">
         <v>1.422931096691302</v>
@@ -31715,7 +31715,7 @@
         <v>0.3488667790531623</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004453618455997823</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H11" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I11" t="n">
         <v>75.9316690641123</v>
@@ -31770,7 +31770,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M11" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N11" t="n">
         <v>351.4344735174688</v>
@@ -31782,7 +31782,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R11" t="n">
         <v>123.7207108967912</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H12" t="n">
         <v>10.17758971182273</v>
@@ -31840,22 +31840,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J12" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K12" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M12" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N12" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O12" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P12" t="n">
         <v>201.2315626127784</v>
@@ -31864,13 +31864,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R12" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S12" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T12" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U12" t="n">
         <v>0.06932963018952815</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I13" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J13" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K13" t="n">
         <v>102.6442223225682</v>
@@ -31928,10 +31928,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M13" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N13" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O13" t="n">
         <v>124.8757721965017</v>
@@ -31940,7 +31940,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R13" t="n">
         <v>39.72443846693446</v>
@@ -31949,10 +31949,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T13" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H14" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I14" t="n">
         <v>75.9316690641123</v>
@@ -32007,7 +32007,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M14" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N14" t="n">
         <v>351.4344735174688</v>
@@ -32019,7 +32019,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R14" t="n">
         <v>123.7207108967912</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H15" t="n">
         <v>10.17758971182273</v>
@@ -32077,22 +32077,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J15" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K15" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M15" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O15" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P15" t="n">
         <v>201.2315626127784</v>
@@ -32101,13 +32101,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R15" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S15" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T15" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U15" t="n">
         <v>0.06932963018952815</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H16" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I16" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J16" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K16" t="n">
         <v>102.6442223225682</v>
@@ -32165,10 +32165,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M16" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N16" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O16" t="n">
         <v>124.8757721965017</v>
@@ -32177,7 +32177,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R16" t="n">
         <v>39.72443846693446</v>
@@ -32186,10 +32186,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T16" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H17" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I17" t="n">
         <v>75.9316690641123</v>
@@ -32244,7 +32244,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M17" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N17" t="n">
         <v>351.4344735174688</v>
@@ -32256,7 +32256,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R17" t="n">
         <v>123.7207108967912</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H18" t="n">
         <v>10.17758971182273</v>
@@ -32314,22 +32314,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J18" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K18" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L18" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M18" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N18" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O18" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P18" t="n">
         <v>201.2315626127784</v>
@@ -32338,13 +32338,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R18" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S18" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T18" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U18" t="n">
         <v>0.06932963018952815</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H19" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I19" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J19" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K19" t="n">
         <v>102.6442223225682</v>
@@ -32402,10 +32402,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M19" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N19" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O19" t="n">
         <v>124.8757721965017</v>
@@ -32414,7 +32414,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R19" t="n">
         <v>39.72443846693446</v>
@@ -32423,10 +32423,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T19" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>212.6909027338605</v>
       </c>
       <c r="R41" t="n">
-        <v>123.7207108967913</v>
+        <v>123.7207108967912</v>
       </c>
       <c r="S41" t="n">
         <v>44.88147094996327</v>
@@ -34380,7 +34380,7 @@
         <v>345.8384458998459</v>
       </c>
       <c r="N44" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174692</v>
       </c>
       <c r="O44" t="n">
         <v>331.8496078341469</v>
@@ -35412,7 +35412,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K11" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L11" t="n">
         <v>272.5001452552028</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.80436804354179</v>
+        <v>20.11011971585305</v>
       </c>
       <c r="J12" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417502</v>
       </c>
       <c r="K12" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L12" t="n">
         <v>206.2958027879431</v>
@@ -35503,16 +35503,16 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O12" t="n">
-        <v>227.5564068705332</v>
+        <v>508.3592333353702</v>
       </c>
       <c r="P12" t="n">
-        <v>330.048592186607</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q12" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2764709618773</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>331.4599811163432</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4305055083114</v>
+        <v>293.9336400597586</v>
       </c>
       <c r="M13" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N13" t="n">
         <v>114.4475148581862</v>
       </c>
       <c r="O13" t="n">
-        <v>286.8797192495248</v>
+        <v>102.3765846980772</v>
       </c>
       <c r="P13" t="n">
         <v>400.387353567249</v>
@@ -35649,7 +35649,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K14" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L14" t="n">
         <v>272.5001452552028</v>
@@ -35725,10 +35725,10 @@
         <v>20.11011971585305</v>
       </c>
       <c r="J15" t="n">
-        <v>78.95085659417504</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K15" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L15" t="n">
         <v>206.2958027879431</v>
@@ -35746,10 +35746,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q15" t="n">
-        <v>286.0530512864361</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2764709618773</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K16" t="n">
-        <v>331.4599811163432</v>
+        <v>201.2100397143791</v>
       </c>
       <c r="L16" t="n">
-        <v>489.6213071155487</v>
+        <v>109.4305055083114</v>
       </c>
       <c r="M16" t="n">
-        <v>333.2363558832867</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N16" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O16" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P16" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K17" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L17" t="n">
         <v>272.5001452552028</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.72441106866077</v>
+        <v>20.11011971585305</v>
       </c>
       <c r="J18" t="n">
-        <v>78.95085659417504</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K18" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L18" t="n">
         <v>206.2958027879431</v>
@@ -35974,7 +35974,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N18" t="n">
-        <v>528.9240229390762</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O18" t="n">
         <v>227.5564068705332</v>
@@ -35986,7 +35986,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75576360338655</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K19" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L19" t="n">
         <v>489.6213071155487</v>
       </c>
       <c r="M19" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N19" t="n">
-        <v>431.6441680398208</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O19" t="n">
-        <v>483.8940839942422</v>
+        <v>102.3765846980772</v>
       </c>
       <c r="P19" t="n">
-        <v>400.387353567249</v>
+        <v>357.6022091153972</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.80436804354179</v>
+        <v>20.11011971585305</v>
       </c>
       <c r="J21" t="n">
-        <v>78.95085659417502</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K21" t="n">
         <v>147.7680324791904</v>
@@ -36217,13 +36217,13 @@
         <v>227.5564068705332</v>
       </c>
       <c r="P21" t="n">
-        <v>330.0485921866075</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q21" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R21" t="n">
-        <v>148.2764709618772</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K22" t="n">
         <v>331.4599811163432</v>
       </c>
       <c r="L22" t="n">
-        <v>207.795540798574</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M22" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N22" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O22" t="n">
-        <v>102.3765846980772</v>
+        <v>465.1722246682052</v>
       </c>
       <c r="P22" t="n">
         <v>84.4719954123928</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J24" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K24" t="n">
         <v>147.7680324791904</v>
@@ -36454,13 +36454,13 @@
         <v>227.5564068705332</v>
       </c>
       <c r="P24" t="n">
-        <v>460.2635478727867</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q24" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R24" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>331.4599811163432</v>
       </c>
       <c r="L25" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M25" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N25" t="n">
-        <v>298.9506494096334</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O25" t="n">
-        <v>102.3765846980772</v>
+        <v>319.6989966302791</v>
       </c>
       <c r="P25" t="n">
         <v>400.387353567249</v>
@@ -36673,7 +36673,7 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J27" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K27" t="n">
         <v>147.7680324791904</v>
@@ -36694,10 +36694,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q27" t="n">
-        <v>368.8795103172383</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R27" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>41.82522500221809</v>
       </c>
       <c r="K28" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L28" t="n">
-        <v>489.6213071155487</v>
+        <v>404.7645028811428</v>
       </c>
       <c r="M28" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N28" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O28" t="n">
-        <v>454.2156030962539</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P28" t="n">
-        <v>84.4719954123928</v>
+        <v>400.387353567249</v>
       </c>
       <c r="Q28" t="n">
         <v>49.35977462278751</v>
@@ -36855,7 +36855,7 @@
         <v>176.5662281292624</v>
       </c>
       <c r="R29" t="n">
-        <v>88.68806100199481</v>
+        <v>88.68806100199475</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J30" t="n">
-        <v>253.2329757005214</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K30" t="n">
         <v>147.7680324791904</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K31" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L31" t="n">
-        <v>489.6213071155487</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M31" t="n">
-        <v>420.5367373459155</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N31" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O31" t="n">
         <v>483.8940839942421</v>
@@ -37147,7 +37147,7 @@
         <v>20.11011971585305</v>
       </c>
       <c r="J33" t="n">
-        <v>253.2329757005214</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K33" t="n">
         <v>147.7680324791904</v>
@@ -37171,7 +37171,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R33" t="n">
-        <v>148.2764709618772</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K34" t="n">
         <v>81.67956786985621</v>
       </c>
       <c r="L34" t="n">
-        <v>109.4305055083114</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M34" t="n">
         <v>528.9240229390762</v>
@@ -37241,13 +37241,13 @@
         <v>516.5009722742268</v>
       </c>
       <c r="O34" t="n">
-        <v>450.5220332348267</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P34" t="n">
         <v>84.4719954123928</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J36" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K36" t="n">
         <v>147.7680324791904</v>
@@ -37396,7 +37396,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N36" t="n">
-        <v>427.0176069333932</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O36" t="n">
         <v>227.5564068705332</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K37" t="n">
-        <v>331.4599811163432</v>
+        <v>224.1110426387494</v>
       </c>
       <c r="L37" t="n">
-        <v>207.795540798574</v>
+        <v>109.4305055083114</v>
       </c>
       <c r="M37" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N37" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O37" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P37" t="n">
-        <v>84.4719954123928</v>
+        <v>400.387353567249</v>
       </c>
       <c r="Q37" t="n">
         <v>202.2622972267259</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J39" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K39" t="n">
         <v>147.7680324791904</v>
@@ -37642,7 +37642,7 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q39" t="n">
-        <v>286.0530512864361</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R39" t="n">
         <v>148.2764709618772</v>
@@ -37703,7 +37703,7 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K40" t="n">
-        <v>113.9096582517497</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L40" t="n">
         <v>109.4305055083114</v>
@@ -37715,13 +37715,13 @@
         <v>516.5009722742268</v>
       </c>
       <c r="O40" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P40" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.2622972267259</v>
+        <v>168.8902464673105</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>176.5662281292624</v>
       </c>
       <c r="R41" t="n">
-        <v>88.68806100199481</v>
+        <v>88.68806100199475</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J42" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728323</v>
       </c>
       <c r="K42" t="n">
         <v>147.7680324791905</v>
@@ -37873,7 +37873,7 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O42" t="n">
-        <v>508.3592333353702</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P42" t="n">
         <v>179.4607214079497</v>
@@ -37882,7 +37882,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5340296973907</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K43" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985623</v>
       </c>
       <c r="L43" t="n">
-        <v>489.6213071155487</v>
+        <v>307.6697820480072</v>
       </c>
       <c r="M43" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390763</v>
       </c>
       <c r="N43" t="n">
-        <v>234.6752059572518</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O43" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P43" t="n">
         <v>84.47199541239281</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>308.407183000414</v>
       </c>
       <c r="N44" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830232</v>
       </c>
       <c r="O44" t="n">
         <v>294.4586484781228</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J45" t="n">
         <v>78.95085659417504</v>
       </c>
       <c r="K45" t="n">
-        <v>428.5708589440274</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L45" t="n">
         <v>206.2958027879431</v>
@@ -38116,10 +38116,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587473</v>
       </c>
       <c r="R45" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K46" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L46" t="n">
-        <v>489.6213071155487</v>
+        <v>478.3287423555244</v>
       </c>
       <c r="M46" t="n">
-        <v>528.9240229390763</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N46" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O46" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P46" t="n">
-        <v>84.47199541239281</v>
+        <v>400.387353567249</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.2169441562381</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
